--- a/Estimacion de tiempo.xlsx
+++ b/Estimacion de tiempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Ifts11\3er año\1er Cuatrimestre\Martes - PP3\RepoGitHub\PP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9079388A-EE55-43F0-9490-32F7121DD1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1B493-BE51-4E7C-82E5-C9CDA7A61742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +126,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,12 +152,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,13 +177,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,10 +496,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
@@ -461,25 +507,25 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <f>SUM(B:B)</f>
         <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>10</v>
       </c>
       <c r="C3">
@@ -487,18 +533,18 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -506,66 +552,66 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>7</v>
       </c>
       <c r="C13">
@@ -573,10 +619,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>5</v>
       </c>
       <c r="C14">
@@ -584,10 +630,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15">
@@ -595,26 +641,26 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>5</v>
       </c>
       <c r="C18">
@@ -622,36 +668,40 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
